--- a/PDDE/entrega 1/relatorio.xlsx
+++ b/PDDE/entrega 1/relatorio.xlsx
@@ -1,86 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\gradest\PDDE\entrega 1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E90307-A71C-4ADD-9C23-D2FC3B8FCE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="7020" yWindow="2805" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tab1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="tab2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="tab3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="tab4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="tab5" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="tab6" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="tab7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="tab1" sheetId="1" r:id="rId1"/>
+    <sheet name="tab2" sheetId="2" r:id="rId2"/>
+    <sheet name="tab3" sheetId="3" r:id="rId3"/>
+    <sheet name="tab4" sheetId="4" r:id="rId4"/>
+    <sheet name="tab5" sheetId="5" r:id="rId5"/>
+    <sheet name="tab6" sheetId="6" r:id="rId6"/>
+    <sheet name="tab7" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">NO_UF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estadual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Municipal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distrito Federal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goiás</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mato Grosso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mato Grosso do Sul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Em atividade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paralisada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extinta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Não diferenciada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urbana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural de difícil acesso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;NA&gt;</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+  <si>
+    <t>NO_UF</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Estadual</t>
+  </si>
+  <si>
+    <t>Municipal</t>
+  </si>
+  <si>
+    <t>Privada</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Distrito Federal</t>
+  </si>
+  <si>
+    <t>Goiás</t>
+  </si>
+  <si>
+    <t>Mato Grosso</t>
+  </si>
+  <si>
+    <t>Mato Grosso do Sul</t>
+  </si>
+  <si>
+    <t>Em atividade</t>
+  </si>
+  <si>
+    <t>Paralisada</t>
+  </si>
+  <si>
+    <t>Extinta</t>
+  </si>
+  <si>
+    <t>Não diferenciada</t>
+  </si>
+  <si>
+    <t>Urbana</t>
+  </si>
+  <si>
+    <t>Rural</t>
+  </si>
+  <si>
+    <t>Rural de difícil acesso</t>
+  </si>
+  <si>
+    <t>&lt;NA&gt;</t>
+  </si>
+  <si>
+    <t>Número de escolas públicas segundo a dependência administrativa e a UF – Centro-Oeste</t>
+  </si>
+  <si>
+    <t>Número de escolas públicas segundo a situação de funcionamento e a UF – Centro-Oeste</t>
+  </si>
+  <si>
+    <t>Fonte: Censo Escolar 2022</t>
+  </si>
+  <si>
+    <t>Número de escolas públicas segundo a localização e a UF – Centro-Oeste (identificação das escolas em localização diferenciada)</t>
+  </si>
+  <si>
+    <t>Número de escolas participantes do PDDE: Escolas PAGAS em 2023.</t>
+  </si>
+  <si>
+    <t>Fonte: Consulta Escola, Censo Escolar 2022</t>
+  </si>
+  <si>
+    <t>Número de escolas participantes do PDDE: Escolas NÃO PAGAS em 2023.</t>
+  </si>
+  <si>
+    <t>Número de escolas participantes do PDDE segundo a UF e a Dependência Administrativa</t>
+  </si>
+  <si>
+    <t>Número de escolas NÃO PARTICIPANTES do PDDE segundo a UF e a Dependência Administrativa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -108,13 +150,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -396,867 +451,891 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C4">
         <v>705</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>775</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>1491</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5">
         <v>1024</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5">
         <v>2729</v>
       </c>
-      <c r="E3" t="n">
-        <v>1686</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="E5">
         <v>5467</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B6">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6">
         <v>825</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6">
         <v>1829</v>
       </c>
-      <c r="E4" t="n">
-        <v>647</v>
-      </c>
-      <c r="F4" t="n">
+      <c r="E6">
         <v>3320</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7">
         <v>365</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7">
         <v>1008</v>
       </c>
-      <c r="E5" t="n">
-        <v>536</v>
-      </c>
-      <c r="F5" t="n">
+      <c r="E7">
         <v>1920</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>69</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8">
         <v>2919</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8">
         <v>5566</v>
       </c>
-      <c r="E6" t="n">
-        <v>3644</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E8">
         <v>12198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B4">
         <v>1395</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C4">
         <v>90</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E4">
         <v>1491</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5">
         <v>4973</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5">
         <v>380</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5">
         <v>114</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E5">
         <v>5467</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B6">
         <v>2816</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6">
         <v>483</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6">
         <v>21</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6">
         <v>3320</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B7">
         <v>1806</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7">
         <v>106</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7">
         <v>1920</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>10990</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8">
         <v>1059</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8">
         <v>149</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8">
         <v>12198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B4">
         <v>1302</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>189</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G4">
         <v>1491</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5">
         <v>4516</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5">
         <v>51</v>
       </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="n">
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
         <v>73</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F5">
         <v>822</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G5">
         <v>5467</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B6">
         <v>2345</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6">
         <v>157</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6">
         <v>203</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F6">
         <v>605</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6">
         <v>3320</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B7">
         <v>1673</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7">
         <v>58</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7">
         <v>66</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7">
         <v>117</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G7">
         <v>1920</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>9836</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8">
         <v>266</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8">
         <v>274</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8">
         <v>89</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8">
         <v>1733</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G8">
         <v>12198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B4">
         <v>452</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>452</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5">
         <v>898</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5">
         <v>2359</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5">
         <v>3257</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B6">
         <v>564</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6">
         <v>1397</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6">
         <v>1961</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B7">
         <v>343</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7">
         <v>938</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7">
         <v>1281</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>2257</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8">
         <v>4694</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8">
         <v>6951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B4">
         <v>204</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>204</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5">
         <v>54</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5">
         <v>141</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5">
         <v>195</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B6">
         <v>142</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6">
         <v>145</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6">
         <v>287</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7">
         <v>47</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7">
         <v>53</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>406</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8">
         <v>333</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8">
         <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
-        <v>11</v>
-      </c>
-      <c r="C2" t="n">
-        <v>49</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>775</v>
-      </c>
-      <c r="F2" t="n">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B4">
+        <v>656</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
-        <v>28</v>
-      </c>
-      <c r="C3" t="n">
-        <v>72</v>
-      </c>
-      <c r="D3" t="n">
-        <v>229</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1686</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>952</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>19</v>
-      </c>
-      <c r="C4" t="n">
-        <v>119</v>
-      </c>
-      <c r="D4" t="n">
-        <v>287</v>
-      </c>
-      <c r="E4" t="n">
-        <v>647</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>706</v>
+      </c>
+      <c r="C6">
+        <v>1542</v>
+      </c>
+      <c r="D6">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="B7">
+        <v>349</v>
+      </c>
+      <c r="C7">
+        <v>985</v>
+      </c>
+      <c r="D7">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>2663</v>
+      </c>
+      <c r="C8">
+        <v>5027</v>
+      </c>
+      <c r="D8">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>23</v>
-      </c>
-      <c r="E5" t="n">
-        <v>536</v>
-      </c>
-      <c r="F5" t="n">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
-        <v>69</v>
-      </c>
-      <c r="C6" t="n">
-        <v>256</v>
-      </c>
-      <c r="D6" t="n">
-        <v>539</v>
-      </c>
-      <c r="E6" t="n">
-        <v>3644</v>
-      </c>
-      <c r="F6" t="n">
-        <v>4508</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B4">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C4">
         <v>49</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>775</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F4">
         <v>835</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B5">
         <v>28</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C5">
         <v>72</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D5">
         <v>229</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E5">
         <v>1686</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F5">
         <v>2015</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B6">
         <v>19</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6">
         <v>119</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6">
         <v>287</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6">
         <v>647</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F6">
         <v>1072</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B7">
         <v>11</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C7">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D7">
         <v>23</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E7">
         <v>536</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F7">
         <v>586</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="n">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
         <v>69</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8">
         <v>256</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8">
         <v>539</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8">
         <v>3644</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8">
         <v>4508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/PDDE/entrega 1/relatorio.xlsx
+++ b/PDDE/entrega 1/relatorio.xlsx
@@ -1,48 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\gradest\PDDE\entrega 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tailine.nonato/Documents/VSCode/PDDE/entrega 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E90307-A71C-4ADD-9C23-D2FC3B8FCE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977CD456-237F-8F44-A76D-5F3CE13B5640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7020" yWindow="2805" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1460" windowWidth="34240" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab1" sheetId="1" r:id="rId1"/>
     <sheet name="tab2" sheetId="2" r:id="rId2"/>
     <sheet name="tab3" sheetId="3" r:id="rId3"/>
-    <sheet name="tab4" sheetId="4" r:id="rId4"/>
-    <sheet name="tab5" sheetId="5" r:id="rId5"/>
-    <sheet name="tab6" sheetId="6" r:id="rId6"/>
-    <sheet name="tab7" sheetId="7" r:id="rId7"/>
+    <sheet name="tab31" sheetId="8" r:id="rId4"/>
+    <sheet name="tab4" sheetId="4" r:id="rId5"/>
+    <sheet name="tab5" sheetId="5" r:id="rId6"/>
+    <sheet name="tab6" sheetId="6" r:id="rId7"/>
+    <sheet name="tab7" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>NO_UF</t>
   </si>
   <si>
-    <t>Federal</t>
-  </si>
-  <si>
     <t>Estadual</t>
   </si>
   <si>
     <t>Municipal</t>
   </si>
   <si>
-    <t>Privada</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -64,24 +59,9 @@
     <t>Paralisada</t>
   </si>
   <si>
-    <t>Extinta</t>
-  </si>
-  <si>
     <t>Não diferenciada</t>
   </si>
   <si>
-    <t>Urbana</t>
-  </si>
-  <si>
-    <t>Rural</t>
-  </si>
-  <si>
-    <t>Rural de difícil acesso</t>
-  </si>
-  <si>
-    <t>&lt;NA&gt;</t>
-  </si>
-  <si>
     <t>Número de escolas públicas segundo a dependência administrativa e a UF – Centro-Oeste</t>
   </si>
   <si>
@@ -107,6 +87,21 @@
   </si>
   <si>
     <t>Número de escolas NÃO PARTICIPANTES do PDDE segundo a UF e a Dependência Administrativa</t>
+  </si>
+  <si>
+    <t>Extinta (ano do Censo)</t>
+  </si>
+  <si>
+    <t>Assentamento</t>
+  </si>
+  <si>
+    <t>Terra Indígena</t>
+  </si>
+  <si>
+    <t>Remanescente de quilombos</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -452,18 +447,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -476,98 +474,80 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>705</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>1024</v>
+      </c>
+      <c r="C5">
+        <v>2729</v>
+      </c>
+      <c r="D5">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>705</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>825</v>
+      </c>
+      <c r="C6">
+        <v>1829</v>
+      </c>
+      <c r="D6">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>1024</v>
-      </c>
-      <c r="D5">
-        <v>2729</v>
-      </c>
-      <c r="E5">
-        <v>5467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>825</v>
-      </c>
-      <c r="D6">
-        <v>1829</v>
-      </c>
-      <c r="E6">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7">
-        <v>11</v>
+        <v>365</v>
       </c>
       <c r="C7">
-        <v>365</v>
+        <v>1008</v>
       </c>
       <c r="D7">
-        <v>1008</v>
-      </c>
-      <c r="E7">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>69</v>
+        <v>2919</v>
       </c>
       <c r="C8">
-        <v>2919</v>
+        <v>5566</v>
       </c>
       <c r="D8">
-        <v>5566</v>
-      </c>
-      <c r="E8">
-        <v>12198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -580,123 +560,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>697</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>3485</v>
+      </c>
+      <c r="C5">
+        <v>208</v>
+      </c>
+      <c r="D5">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>1395</v>
-      </c>
-      <c r="C4">
-        <v>90</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>2252</v>
+      </c>
+      <c r="C6">
+        <v>387</v>
+      </c>
+      <c r="D6">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>4973</v>
-      </c>
-      <c r="C5">
-        <v>380</v>
-      </c>
-      <c r="D5">
-        <v>114</v>
-      </c>
-      <c r="E5">
-        <v>5467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2816</v>
-      </c>
-      <c r="C6">
-        <v>483</v>
-      </c>
-      <c r="D6">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7">
-        <v>1806</v>
+        <v>1343</v>
       </c>
       <c r="C7">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>10990</v>
+        <v>7777</v>
       </c>
       <c r="C8">
-        <v>1059</v>
+        <v>630</v>
       </c>
       <c r="D8">
-        <v>149</v>
+        <v>78</v>
       </c>
       <c r="E8">
-        <v>12198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -709,73 +696,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>695</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1302</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>189</v>
-      </c>
-      <c r="G4">
-        <v>1491</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
       <c r="B5">
-        <v>4516</v>
+        <v>3355</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -784,18 +778,18 @@
         <v>73</v>
       </c>
       <c r="F5">
-        <v>822</v>
+        <v>270</v>
       </c>
       <c r="G5">
-        <v>5467</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2345</v>
+        <v>1882</v>
       </c>
       <c r="C6">
         <v>157</v>
@@ -807,61 +801,61 @@
         <v>10</v>
       </c>
       <c r="F6">
-        <v>605</v>
+        <v>402</v>
       </c>
       <c r="G6">
-        <v>3320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1673</v>
+        <v>1213</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <v>117</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>1920</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>9836</v>
+        <v>7145</v>
       </c>
       <c r="C8">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D8">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E8">
         <v>89</v>
       </c>
       <c r="F8">
-        <v>1733</v>
+        <v>714</v>
       </c>
       <c r="G8">
-        <v>12198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>8485</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -871,105 +865,112 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F434A3A-7BFC-8446-A2AC-632FEA8A7AEB}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>73</v>
+      </c>
+      <c r="E4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>452</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>157</v>
+      </c>
+      <c r="C5">
+        <v>203</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>898</v>
-      </c>
-      <c r="C5">
-        <v>2359</v>
-      </c>
-      <c r="D5">
-        <v>3257</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
       <c r="B6">
-        <v>564</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>1397</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>1961</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B7">
-        <v>343</v>
+        <v>264</v>
       </c>
       <c r="C7">
-        <v>938</v>
+        <v>273</v>
       </c>
       <c r="D7">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>2257</v>
-      </c>
-      <c r="C8">
-        <v>4694</v>
-      </c>
-      <c r="D8">
-        <v>6951</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E7">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -979,105 +980,110 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>452</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>898</v>
+      </c>
+      <c r="C5">
+        <v>2359</v>
+      </c>
+      <c r="D5">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>204</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>564</v>
+      </c>
+      <c r="C6">
+        <v>1397</v>
+      </c>
+      <c r="D6">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>54</v>
-      </c>
-      <c r="C5">
-        <v>141</v>
-      </c>
-      <c r="D5">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>142</v>
-      </c>
-      <c r="C6">
-        <v>145</v>
-      </c>
-      <c r="D6">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7">
-        <v>6</v>
+        <v>343</v>
       </c>
       <c r="C7">
-        <v>47</v>
+        <v>938</v>
       </c>
       <c r="D7">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>406</v>
+        <v>2257</v>
       </c>
       <c r="C8">
-        <v>333</v>
+        <v>4694</v>
       </c>
       <c r="D8">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6951</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1087,107 +1093,108 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>204</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>141</v>
+      </c>
+      <c r="D5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>656</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>142</v>
+      </c>
+      <c r="C6">
+        <v>145</v>
+      </c>
+      <c r="D6">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>952</v>
-      </c>
-      <c r="C5">
-        <v>2500</v>
-      </c>
-      <c r="D5">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>706</v>
-      </c>
-      <c r="C6">
-        <v>1542</v>
-      </c>
-      <c r="D6">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7">
-        <v>349</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>985</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2663</v>
+        <v>406</v>
       </c>
       <c r="C8">
-        <v>5027</v>
+        <v>333</v>
       </c>
       <c r="D8">
-        <v>7690</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1197,19 +1204,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1222,116 +1234,191 @@
       <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B4">
+        <v>656</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>952</v>
+      </c>
+      <c r="C5">
+        <v>2500</v>
+      </c>
+      <c r="D5">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>706</v>
+      </c>
+      <c r="C6">
+        <v>1542</v>
+      </c>
+      <c r="D6">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>349</v>
+      </c>
+      <c r="C7">
+        <v>985</v>
+      </c>
+      <c r="D7">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2663</v>
+      </c>
+      <c r="C8">
+        <v>5027</v>
+      </c>
+      <c r="D8">
+        <v>7690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>49</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>72</v>
+      </c>
+      <c r="C5">
+        <v>229</v>
+      </c>
+      <c r="D5">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>775</v>
-      </c>
-      <c r="F4">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6">
+        <v>119</v>
+      </c>
+      <c r="C6">
+        <v>287</v>
+      </c>
+      <c r="D6">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>28</v>
-      </c>
-      <c r="C5">
-        <v>72</v>
-      </c>
-      <c r="D5">
-        <v>229</v>
-      </c>
-      <c r="E5">
-        <v>1686</v>
-      </c>
-      <c r="F5">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>119</v>
-      </c>
-      <c r="D6">
-        <v>287</v>
-      </c>
-      <c r="E6">
-        <v>647</v>
-      </c>
-      <c r="F6">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
       <c r="B7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>256</v>
+      </c>
+      <c r="C8">
+        <v>539</v>
+      </c>
+      <c r="D8">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>536</v>
-      </c>
-      <c r="F7">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>69</v>
-      </c>
-      <c r="C8">
-        <v>256</v>
-      </c>
-      <c r="D8">
-        <v>539</v>
-      </c>
-      <c r="E8">
-        <v>3644</v>
-      </c>
-      <c r="F8">
-        <v>4508</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/PDDE/entrega 1/relatorio.xlsx
+++ b/PDDE/entrega 1/relatorio.xlsx
@@ -8,26 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tailine.nonato/Documents/VSCode/PDDE/entrega 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977CD456-237F-8F44-A76D-5F3CE13B5640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE527E04-7D7D-6442-AACD-2EBCFC06B59D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1460" windowWidth="34240" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1460" windowWidth="22660" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tab1" sheetId="1" r:id="rId1"/>
     <sheet name="tab2" sheetId="2" r:id="rId2"/>
-    <sheet name="tab3" sheetId="3" r:id="rId3"/>
-    <sheet name="tab31" sheetId="8" r:id="rId4"/>
+    <sheet name="tab3.1" sheetId="3" r:id="rId3"/>
+    <sheet name="tab3.2" sheetId="8" r:id="rId4"/>
     <sheet name="tab4" sheetId="4" r:id="rId5"/>
     <sheet name="tab5" sheetId="5" r:id="rId6"/>
     <sheet name="tab6" sheetId="6" r:id="rId7"/>
     <sheet name="tab7" sheetId="7" r:id="rId8"/>
+    <sheet name="tab8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="26">
   <si>
     <t>NO_UF</t>
   </si>
@@ -102,6 +103,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>Número de escolas não participantes do PDDE que estão em atividade</t>
   </si>
 </sst>
 </file>
@@ -1425,4 +1429,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CC470C-874A-4F49-98EF-9D47894C1177}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>41</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>